--- a/Results/Copy of BSM1G_Dynamic Ringtest_20140909.xlsx
+++ b/Results/Copy of BSM1G_Dynamic Ringtest_20140909.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="690" windowWidth="23880" windowHeight="9435" tabRatio="848"/>
+    <workbookView xWindow="120" yWindow="690" windowWidth="23880" windowHeight="9435" tabRatio="848" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BSM2 OL (1 year)" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="282">
   <si>
     <t>Openloop</t>
   </si>
@@ -967,6 +967,9 @@
   </si>
   <si>
     <t>End time (hour:min:sec) = 13  33  19</t>
+  </si>
+  <si>
+    <t>End time (hour:min:sec) = 14   6  50</t>
   </si>
 </sst>
 </file>
@@ -2193,8 +2196,8 @@
   </sheetPr>
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView topLeftCell="C69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5500,862 +5503,1377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B171"/>
+  <dimension ref="B2:J172"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149:B154"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J72" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J82" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J84" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J95" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J96" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J98" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J106" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J107" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J111" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J117" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J120" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J122" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J123" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J128" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J129" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J136" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J137" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J138" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J140" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J142" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J143" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J144" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J145" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J146" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J147" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J148" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J149" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J150" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J151" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J152" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J153" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J154" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J155" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J156" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J158" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J159" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J161" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J162" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J163" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J164" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J165" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J167" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J168" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J169" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="J170" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>280</v>
+      </c>
+      <c r="J171" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J172" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
